--- a/Song Rankdowns/Sheet generator/b.xlsx
+++ b/Song Rankdowns/Sheet generator/b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukasz\Documents\GitHub\Python-tings\Song Rankdowns\Sheet generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2904A45F-4795-4DE6-AD62-26EBB7CA99A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1B28F5-D104-4CD9-82C0-ABEC3D188C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -45,6 +45,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -61,9 +67,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,85 +351,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:G14"/>
+  <dimension ref="C4:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
